--- a/Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/Financials/Yearly/PKX_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B36D94-A727-4863-8A35-000C8AF4BD74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PKX" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>PKX</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,140 +689,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>54589600</v>
+        <v>57180400</v>
       </c>
       <c r="E8" s="3">
-        <v>47775200</v>
+        <v>53376500</v>
       </c>
       <c r="F8" s="3">
-        <v>52373100</v>
+        <v>46713500</v>
       </c>
       <c r="G8" s="3">
-        <v>58282800</v>
+        <v>51209300</v>
       </c>
       <c r="H8" s="3">
-        <v>55589200</v>
+        <v>56987600</v>
       </c>
       <c r="I8" s="3">
-        <v>57243700</v>
+        <v>54353900</v>
       </c>
       <c r="J8" s="3">
+        <v>55971700</v>
+      </c>
+      <c r="K8" s="3">
         <v>62044900</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>47069300</v>
+        <v>50164700</v>
       </c>
       <c r="E9" s="3">
-        <v>41754600</v>
+        <v>46023300</v>
       </c>
       <c r="F9" s="3">
-        <v>46492300</v>
+        <v>40826700</v>
       </c>
       <c r="G9" s="3">
-        <v>51718900</v>
+        <v>45459100</v>
       </c>
       <c r="H9" s="3">
-        <v>49422400</v>
+        <v>50569600</v>
       </c>
       <c r="I9" s="3">
-        <v>50528600</v>
+        <v>48324200</v>
       </c>
       <c r="J9" s="3">
+        <v>49405700</v>
+      </c>
+      <c r="K9" s="3">
         <v>53841500</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7520300</v>
+        <v>7015700</v>
       </c>
       <c r="E10" s="3">
-        <v>6020600</v>
+        <v>7353200</v>
       </c>
       <c r="F10" s="3">
-        <v>5880800</v>
+        <v>5886800</v>
       </c>
       <c r="G10" s="3">
-        <v>6563800</v>
+        <v>5750100</v>
       </c>
       <c r="H10" s="3">
-        <v>6166700</v>
+        <v>6418000</v>
       </c>
       <c r="I10" s="3">
-        <v>6715100</v>
+        <v>6029700</v>
       </c>
       <c r="J10" s="3">
+        <v>6565900</v>
+      </c>
+      <c r="K10" s="3">
         <v>8203400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,35 +846,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>113200</v>
+        <v>95300</v>
       </c>
       <c r="E12" s="3">
-        <v>108500</v>
+        <v>110700</v>
       </c>
       <c r="F12" s="3">
-        <v>122000</v>
+        <v>106100</v>
       </c>
       <c r="G12" s="3">
-        <v>157700</v>
+        <v>119200</v>
       </c>
       <c r="H12" s="3">
-        <v>173500</v>
+        <v>154200</v>
       </c>
       <c r="I12" s="3">
-        <v>173100</v>
+        <v>169700</v>
       </c>
       <c r="J12" s="3">
+        <v>169200</v>
+      </c>
+      <c r="K12" s="3">
         <v>191200</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,63 +903,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>312000</v>
+        <v>1236000</v>
       </c>
       <c r="E14" s="3">
-        <v>546400</v>
+        <v>305000</v>
       </c>
       <c r="F14" s="3">
-        <v>464900</v>
+        <v>534300</v>
       </c>
       <c r="G14" s="3">
-        <v>490600</v>
+        <v>454600</v>
       </c>
       <c r="H14" s="3">
-        <v>383500</v>
+        <v>479700</v>
       </c>
       <c r="I14" s="3">
-        <v>529500</v>
+        <v>375000</v>
       </c>
       <c r="J14" s="3">
+        <v>517800</v>
+      </c>
+      <c r="K14" s="3">
         <v>44500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>219200</v>
+        <v>188000</v>
       </c>
       <c r="E15" s="3">
-        <v>218700</v>
+        <v>214300</v>
       </c>
       <c r="F15" s="3">
-        <v>246600</v>
+        <v>213800</v>
       </c>
       <c r="G15" s="3">
-        <v>245900</v>
+        <v>241100</v>
       </c>
       <c r="H15" s="3">
-        <v>205600</v>
+        <v>240400</v>
       </c>
       <c r="I15" s="3">
-        <v>196900</v>
+        <v>201100</v>
       </c>
       <c r="J15" s="3">
+        <v>192500</v>
+      </c>
+      <c r="K15" s="3">
         <v>155500</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +977,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>50741900</v>
+        <v>53538900</v>
       </c>
       <c r="E17" s="3">
-        <v>45761700</v>
+        <v>49614300</v>
       </c>
       <c r="F17" s="3">
-        <v>50669000</v>
+        <v>44744800</v>
       </c>
       <c r="G17" s="3">
-        <v>55872400</v>
+        <v>49543000</v>
       </c>
       <c r="H17" s="3">
-        <v>53283500</v>
+        <v>54630800</v>
       </c>
       <c r="I17" s="3">
-        <v>54442700</v>
+        <v>52099400</v>
       </c>
       <c r="J17" s="3">
+        <v>53232900</v>
+      </c>
+      <c r="K17" s="3">
         <v>57177600</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3847700</v>
+        <v>3641500</v>
       </c>
       <c r="E18" s="3">
-        <v>2013500</v>
+        <v>3762200</v>
       </c>
       <c r="F18" s="3">
-        <v>1704100</v>
+        <v>1968700</v>
       </c>
       <c r="G18" s="3">
-        <v>2410300</v>
+        <v>1666300</v>
       </c>
       <c r="H18" s="3">
-        <v>2305700</v>
+        <v>2356800</v>
       </c>
       <c r="I18" s="3">
-        <v>2801000</v>
+        <v>2254500</v>
       </c>
       <c r="J18" s="3">
+        <v>2738800</v>
+      </c>
+      <c r="K18" s="3">
         <v>4867300</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -984,143 +1051,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>501800</v>
+        <v>146100</v>
       </c>
       <c r="E20" s="3">
-        <v>-131000</v>
+        <v>490700</v>
       </c>
       <c r="F20" s="3">
-        <v>-831600</v>
+        <v>-128100</v>
       </c>
       <c r="G20" s="3">
-        <v>-445200</v>
+        <v>-813100</v>
       </c>
       <c r="H20" s="3">
-        <v>30400</v>
+        <v>-435300</v>
       </c>
       <c r="I20" s="3">
-        <v>1014900</v>
+        <v>29800</v>
       </c>
       <c r="J20" s="3">
+        <v>992400</v>
+      </c>
+      <c r="K20" s="3">
         <v>146400</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>7284200</v>
+        <v>6663100</v>
       </c>
       <c r="E21" s="3">
-        <v>4742700</v>
+        <v>7154600</v>
       </c>
       <c r="F21" s="3">
-        <v>3736800</v>
+        <v>4668800</v>
       </c>
       <c r="G21" s="3">
-        <v>4847400</v>
+        <v>3685200</v>
       </c>
       <c r="H21" s="3">
-        <v>4726300</v>
+        <v>4771400</v>
       </c>
       <c r="I21" s="3">
-        <v>6097700</v>
+        <v>4647500</v>
       </c>
       <c r="J21" s="3">
+        <v>5987300</v>
+      </c>
+      <c r="K21" s="3">
         <v>7030700</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>587800</v>
+        <v>652300</v>
       </c>
       <c r="E22" s="3">
-        <v>592900</v>
+        <v>574700</v>
       </c>
       <c r="F22" s="3">
-        <v>709900</v>
+        <v>579700</v>
       </c>
       <c r="G22" s="3">
-        <v>716000</v>
+        <v>694100</v>
       </c>
       <c r="H22" s="3">
-        <v>591900</v>
+        <v>700100</v>
       </c>
       <c r="I22" s="3">
-        <v>784300</v>
+        <v>578800</v>
       </c>
       <c r="J22" s="3">
+        <v>766900</v>
+      </c>
+      <c r="K22" s="3">
         <v>709500</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3761700</v>
+        <v>3135300</v>
       </c>
       <c r="E23" s="3">
-        <v>1289600</v>
+        <v>3678100</v>
       </c>
       <c r="F23" s="3">
-        <v>162700</v>
+        <v>1260900</v>
       </c>
       <c r="G23" s="3">
-        <v>1249100</v>
+        <v>159100</v>
       </c>
       <c r="H23" s="3">
-        <v>1744200</v>
+        <v>1221300</v>
       </c>
       <c r="I23" s="3">
-        <v>3031600</v>
+        <v>1705500</v>
       </c>
       <c r="J23" s="3">
+        <v>2964300</v>
+      </c>
+      <c r="K23" s="3">
         <v>4304200</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1085600</v>
+        <v>1470300</v>
       </c>
       <c r="E24" s="3">
-        <v>346200</v>
+        <v>1061500</v>
       </c>
       <c r="F24" s="3">
-        <v>249200</v>
+        <v>338500</v>
       </c>
       <c r="G24" s="3">
-        <v>741500</v>
+        <v>243700</v>
       </c>
       <c r="H24" s="3">
-        <v>530100</v>
+        <v>725000</v>
       </c>
       <c r="I24" s="3">
-        <v>884600</v>
+        <v>518300</v>
       </c>
       <c r="J24" s="3">
+        <v>864900</v>
+      </c>
+      <c r="K24" s="3">
         <v>961300</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1145,63 +1228,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2676100</v>
+        <v>1665000</v>
       </c>
       <c r="E26" s="3">
-        <v>943400</v>
+        <v>2616700</v>
       </c>
       <c r="F26" s="3">
-        <v>-86600</v>
+        <v>922400</v>
       </c>
       <c r="G26" s="3">
-        <v>507600</v>
+        <v>-84600</v>
       </c>
       <c r="H26" s="3">
-        <v>1214100</v>
+        <v>496400</v>
       </c>
       <c r="I26" s="3">
-        <v>2147000</v>
+        <v>1187100</v>
       </c>
       <c r="J26" s="3">
+        <v>2099300</v>
+      </c>
+      <c r="K26" s="3">
         <v>3342900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2481400</v>
+        <v>1472100</v>
       </c>
       <c r="E27" s="3">
-        <v>1197100</v>
+        <v>2426200</v>
       </c>
       <c r="F27" s="3">
-        <v>132900</v>
+        <v>1170500</v>
       </c>
       <c r="G27" s="3">
-        <v>539700</v>
+        <v>129900</v>
       </c>
       <c r="H27" s="3">
-        <v>1217300</v>
+        <v>527700</v>
       </c>
       <c r="I27" s="3">
-        <v>2215900</v>
+        <v>1190300</v>
       </c>
       <c r="J27" s="3">
+        <v>2166600</v>
+      </c>
+      <c r="K27" s="3">
         <v>3283300</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1226,9 +1318,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1253,9 +1348,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,9 +1378,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1307,63 +1408,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-501800</v>
+        <v>-146100</v>
       </c>
       <c r="E32" s="3">
-        <v>131000</v>
+        <v>-490700</v>
       </c>
       <c r="F32" s="3">
-        <v>831600</v>
+        <v>128100</v>
       </c>
       <c r="G32" s="3">
-        <v>445200</v>
+        <v>813100</v>
       </c>
       <c r="H32" s="3">
-        <v>-30400</v>
+        <v>435300</v>
       </c>
       <c r="I32" s="3">
-        <v>-1014900</v>
+        <v>-29800</v>
       </c>
       <c r="J32" s="3">
+        <v>-992400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-146400</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2481400</v>
+        <v>1472100</v>
       </c>
       <c r="E33" s="3">
-        <v>1197100</v>
+        <v>2426200</v>
       </c>
       <c r="F33" s="3">
-        <v>132900</v>
+        <v>1170500</v>
       </c>
       <c r="G33" s="3">
-        <v>539700</v>
+        <v>129900</v>
       </c>
       <c r="H33" s="3">
-        <v>1217300</v>
+        <v>527700</v>
       </c>
       <c r="I33" s="3">
-        <v>2215900</v>
+        <v>1190300</v>
       </c>
       <c r="J33" s="3">
+        <v>2166600</v>
+      </c>
+      <c r="K33" s="3">
         <v>3283300</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1388,68 +1498,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2481400</v>
+        <v>1472100</v>
       </c>
       <c r="E35" s="3">
-        <v>1197100</v>
+        <v>2426200</v>
       </c>
       <c r="F35" s="3">
-        <v>132900</v>
+        <v>1170500</v>
       </c>
       <c r="G35" s="3">
-        <v>539700</v>
+        <v>129900</v>
       </c>
       <c r="H35" s="3">
-        <v>1217300</v>
+        <v>527700</v>
       </c>
       <c r="I35" s="3">
-        <v>2215900</v>
+        <v>1190300</v>
       </c>
       <c r="J35" s="3">
+        <v>2166600</v>
+      </c>
+      <c r="K35" s="3">
         <v>3283300</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1461,8 +1580,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1474,251 +1594,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2351300</v>
+        <v>2326600</v>
       </c>
       <c r="E41" s="3">
-        <v>2202900</v>
+        <v>2299000</v>
       </c>
       <c r="F41" s="3">
-        <v>4383200</v>
+        <v>2153900</v>
       </c>
       <c r="G41" s="3">
-        <v>3430100</v>
+        <v>4285800</v>
       </c>
       <c r="H41" s="3">
-        <v>7575400</v>
+        <v>3353900</v>
       </c>
       <c r="I41" s="3">
-        <v>112500</v>
+        <v>7407100</v>
       </c>
       <c r="J41" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K41" s="3">
         <v>70600</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>6341300</v>
+        <v>7111400</v>
       </c>
       <c r="E42" s="3">
-        <v>4696300</v>
+        <v>6200400</v>
       </c>
       <c r="F42" s="3">
-        <v>3519300</v>
+        <v>4591900</v>
       </c>
       <c r="G42" s="3">
-        <v>1316600</v>
+        <v>3441100</v>
       </c>
       <c r="H42" s="3">
-        <v>2673600</v>
+        <v>1287400</v>
       </c>
       <c r="I42" s="3">
-        <v>4304800</v>
+        <v>2614200</v>
       </c>
       <c r="J42" s="3">
+        <v>4209100</v>
+      </c>
+      <c r="K42" s="3">
         <v>4226100</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9466100</v>
+        <v>9337800</v>
       </c>
       <c r="E43" s="3">
-        <v>10151300</v>
+        <v>9255800</v>
       </c>
       <c r="F43" s="3">
-        <v>10098100</v>
+        <v>9925700</v>
       </c>
       <c r="G43" s="3">
-        <v>12240000</v>
+        <v>9873700</v>
       </c>
       <c r="H43" s="3">
-        <v>12030700</v>
+        <v>11968000</v>
       </c>
       <c r="I43" s="3">
-        <v>13033000</v>
+        <v>11763300</v>
       </c>
       <c r="J43" s="3">
+        <v>12743300</v>
+      </c>
+      <c r="K43" s="3">
         <v>13322600</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>8955900</v>
+        <v>10119900</v>
       </c>
       <c r="E44" s="3">
-        <v>8146500</v>
+        <v>8756800</v>
       </c>
       <c r="F44" s="3">
-        <v>7402700</v>
+        <v>7965500</v>
       </c>
       <c r="G44" s="3">
-        <v>10056000</v>
+        <v>7238200</v>
       </c>
       <c r="H44" s="3">
-        <v>9135800</v>
+        <v>9832500</v>
       </c>
       <c r="I44" s="3">
-        <v>9526200</v>
+        <v>8932700</v>
       </c>
       <c r="J44" s="3">
+        <v>9314500</v>
+      </c>
+      <c r="K44" s="3">
         <v>11055300</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>900100</v>
+        <v>717200</v>
       </c>
       <c r="E45" s="3">
-        <v>1176400</v>
+        <v>880100</v>
       </c>
       <c r="F45" s="3">
-        <v>859500</v>
+        <v>1150300</v>
       </c>
       <c r="G45" s="3">
-        <v>2844400</v>
+        <v>840400</v>
       </c>
       <c r="H45" s="3">
-        <v>1207100</v>
+        <v>2781200</v>
       </c>
       <c r="I45" s="3">
-        <v>1433000</v>
+        <v>1180300</v>
       </c>
       <c r="J45" s="3">
+        <v>1401200</v>
+      </c>
+      <c r="K45" s="3">
         <v>1543300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>28014700</v>
+        <v>29612900</v>
       </c>
       <c r="E46" s="3">
-        <v>26373500</v>
+        <v>27392100</v>
       </c>
       <c r="F46" s="3">
-        <v>26262800</v>
+        <v>25787400</v>
       </c>
       <c r="G46" s="3">
-        <v>29887100</v>
+        <v>25679200</v>
       </c>
       <c r="H46" s="3">
-        <v>28834800</v>
+        <v>29223000</v>
       </c>
       <c r="I46" s="3">
-        <v>28409500</v>
+        <v>28194100</v>
       </c>
       <c r="J46" s="3">
+        <v>27778200</v>
+      </c>
+      <c r="K46" s="3">
         <v>30201200</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>6262100</v>
+        <v>5663900</v>
       </c>
       <c r="E47" s="3">
-        <v>6524900</v>
+        <v>6122900</v>
       </c>
       <c r="F47" s="3">
-        <v>6416100</v>
+        <v>6379900</v>
       </c>
       <c r="G47" s="3">
-        <v>6795700</v>
+        <v>6273500</v>
       </c>
       <c r="H47" s="3">
-        <v>8151700</v>
+        <v>6644700</v>
       </c>
       <c r="I47" s="3">
-        <v>7004000</v>
+        <v>7970500</v>
       </c>
       <c r="J47" s="3">
+        <v>6848300</v>
+      </c>
+      <c r="K47" s="3">
         <v>8160100</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>29653600</v>
+        <v>27233300</v>
       </c>
       <c r="E48" s="3">
-        <v>31399300</v>
+        <v>28994600</v>
       </c>
       <c r="F48" s="3">
-        <v>32046400</v>
+        <v>30701500</v>
       </c>
       <c r="G48" s="3">
-        <v>32667100</v>
+        <v>31334300</v>
       </c>
       <c r="H48" s="3">
-        <v>32566800</v>
+        <v>31941200</v>
       </c>
       <c r="I48" s="3">
-        <v>29517800</v>
+        <v>31843100</v>
       </c>
       <c r="J48" s="3">
+        <v>28861900</v>
+      </c>
+      <c r="K48" s="3">
         <v>72571100</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>5357000</v>
+        <v>4550300</v>
       </c>
       <c r="E49" s="3">
-        <v>5479900</v>
+        <v>5238000</v>
       </c>
       <c r="F49" s="3">
-        <v>5765200</v>
+        <v>5358100</v>
       </c>
       <c r="G49" s="3">
-        <v>6196500</v>
+        <v>5637100</v>
       </c>
       <c r="H49" s="3">
-        <v>5336900</v>
+        <v>6058800</v>
       </c>
       <c r="I49" s="3">
-        <v>5096100</v>
+        <v>5218300</v>
       </c>
       <c r="J49" s="3">
+        <v>4982900</v>
+      </c>
+      <c r="K49" s="3">
         <v>4720400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1743,9 +1891,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1770,36 +1921,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1835100</v>
+        <v>1798200</v>
       </c>
       <c r="E52" s="3">
-        <v>2009200</v>
+        <v>1794300</v>
       </c>
       <c r="F52" s="3">
-        <v>1877400</v>
+        <v>1964600</v>
       </c>
       <c r="G52" s="3">
-        <v>1712800</v>
+        <v>1835600</v>
       </c>
       <c r="H52" s="3">
-        <v>1466800</v>
+        <v>1674700</v>
       </c>
       <c r="I52" s="3">
-        <v>1311900</v>
+        <v>1434200</v>
       </c>
       <c r="J52" s="3">
+        <v>1282700</v>
+      </c>
+      <c r="K52" s="3">
         <v>1404100</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1824,36 +1981,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>71122500</v>
+        <v>68858500</v>
       </c>
       <c r="E54" s="3">
-        <v>71786700</v>
+        <v>69542000</v>
       </c>
       <c r="F54" s="3">
-        <v>72367900</v>
+        <v>70191400</v>
       </c>
       <c r="G54" s="3">
-        <v>77259200</v>
+        <v>70759700</v>
       </c>
       <c r="H54" s="3">
-        <v>76357000</v>
+        <v>75542300</v>
       </c>
       <c r="I54" s="3">
-        <v>71339300</v>
+        <v>74660200</v>
       </c>
       <c r="J54" s="3">
+        <v>69753900</v>
+      </c>
+      <c r="K54" s="3">
         <v>70568000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1865,8 +2028,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1878,170 +2042,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3118600</v>
+        <v>3525400</v>
       </c>
       <c r="E57" s="3">
-        <v>3666000</v>
+        <v>3049300</v>
       </c>
       <c r="F57" s="3">
-        <v>2812800</v>
+        <v>3584500</v>
       </c>
       <c r="G57" s="3">
-        <v>3555700</v>
+        <v>2750300</v>
       </c>
       <c r="H57" s="3">
-        <v>3808200</v>
+        <v>3476700</v>
       </c>
       <c r="I57" s="3">
-        <v>4614300</v>
+        <v>3723600</v>
       </c>
       <c r="J57" s="3">
+        <v>4511800</v>
+      </c>
+      <c r="K57" s="3">
         <v>4901600</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>10163100</v>
+        <v>9063800</v>
       </c>
       <c r="E58" s="3">
-        <v>9197400</v>
+        <v>9937200</v>
       </c>
       <c r="F58" s="3">
-        <v>11158100</v>
+        <v>8993000</v>
       </c>
       <c r="G58" s="3">
-        <v>10995600</v>
+        <v>10910200</v>
       </c>
       <c r="H58" s="3">
-        <v>9655100</v>
+        <v>10751300</v>
       </c>
       <c r="I58" s="3">
-        <v>9458400</v>
+        <v>9440500</v>
       </c>
       <c r="J58" s="3">
+        <v>9248200</v>
+      </c>
+      <c r="K58" s="3">
         <v>9712400</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>3769700</v>
+        <v>4076200</v>
       </c>
       <c r="E59" s="3">
-        <v>4160500</v>
+        <v>3686000</v>
       </c>
       <c r="F59" s="3">
-        <v>4146900</v>
+        <v>4068000</v>
       </c>
       <c r="G59" s="3">
-        <v>5586200</v>
+        <v>4054700</v>
       </c>
       <c r="H59" s="3">
-        <v>4858500</v>
+        <v>5462100</v>
       </c>
       <c r="I59" s="3">
-        <v>3724800</v>
+        <v>4750600</v>
       </c>
       <c r="J59" s="3">
+        <v>3642000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3030900</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>17051400</v>
+        <v>16665400</v>
       </c>
       <c r="E60" s="3">
-        <v>17023900</v>
+        <v>16672500</v>
       </c>
       <c r="F60" s="3">
-        <v>18117800</v>
+        <v>16645500</v>
       </c>
       <c r="G60" s="3">
-        <v>20137500</v>
+        <v>17715200</v>
       </c>
       <c r="H60" s="3">
-        <v>18321800</v>
+        <v>19690000</v>
       </c>
       <c r="I60" s="3">
-        <v>17797500</v>
+        <v>17914600</v>
       </c>
       <c r="J60" s="3">
+        <v>17402000</v>
+      </c>
+      <c r="K60" s="3">
         <v>17644800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8878000</v>
+        <v>8803700</v>
       </c>
       <c r="E61" s="3">
-        <v>11340100</v>
+        <v>8680700</v>
       </c>
       <c r="F61" s="3">
-        <v>11577200</v>
+        <v>11088100</v>
       </c>
       <c r="G61" s="3">
-        <v>13731800</v>
+        <v>11320000</v>
       </c>
       <c r="H61" s="3">
-        <v>14015000</v>
+        <v>13426700</v>
       </c>
       <c r="I61" s="3">
-        <v>12970900</v>
+        <v>13703600</v>
       </c>
       <c r="J61" s="3">
+        <v>12682600</v>
+      </c>
+      <c r="K61" s="3">
         <v>14418200</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2475500</v>
+        <v>2240900</v>
       </c>
       <c r="E62" s="3">
-        <v>2168200</v>
+        <v>2420500</v>
       </c>
       <c r="F62" s="3">
-        <v>2109600</v>
+        <v>2120000</v>
       </c>
       <c r="G62" s="3">
-        <v>2658200</v>
+        <v>2062700</v>
       </c>
       <c r="H62" s="3">
-        <v>2817600</v>
+        <v>2599100</v>
       </c>
       <c r="I62" s="3">
-        <v>2384400</v>
+        <v>2755000</v>
       </c>
       <c r="J62" s="3">
+        <v>2331400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1848000</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2066,9 +2249,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2093,9 +2279,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2120,36 +2309,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>31762900</v>
+        <v>30691800</v>
       </c>
       <c r="E66" s="3">
-        <v>33650600</v>
+        <v>31057000</v>
       </c>
       <c r="F66" s="3">
-        <v>35256100</v>
+        <v>32902800</v>
       </c>
       <c r="G66" s="3">
-        <v>39857900</v>
+        <v>34472600</v>
       </c>
       <c r="H66" s="3">
-        <v>38548900</v>
+        <v>38972200</v>
       </c>
       <c r="I66" s="3">
-        <v>35830500</v>
+        <v>37692200</v>
       </c>
       <c r="J66" s="3">
+        <v>35034300</v>
+      </c>
+      <c r="K66" s="3">
         <v>36047200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2161,8 +2356,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2187,9 +2383,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2214,9 +2413,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2241,9 +2443,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2268,36 +2473,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>38750900</v>
+        <v>38910100</v>
       </c>
       <c r="E72" s="3">
-        <v>37056400</v>
+        <v>37889800</v>
       </c>
       <c r="F72" s="3">
-        <v>36451000</v>
+        <v>36232900</v>
       </c>
       <c r="G72" s="3">
-        <v>36843400</v>
+        <v>35640900</v>
       </c>
       <c r="H72" s="3">
-        <v>36948300</v>
+        <v>36024700</v>
       </c>
       <c r="I72" s="3">
-        <v>36295300</v>
+        <v>36127200</v>
       </c>
       <c r="J72" s="3">
+        <v>35488800</v>
+      </c>
+      <c r="K72" s="3">
         <v>34823700</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2322,9 +2533,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2349,9 +2563,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2376,36 +2593,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>39359600</v>
+        <v>38166700</v>
       </c>
       <c r="E76" s="3">
-        <v>38136100</v>
+        <v>38484900</v>
       </c>
       <c r="F76" s="3">
-        <v>37111800</v>
+        <v>37288600</v>
       </c>
       <c r="G76" s="3">
-        <v>37401300</v>
+        <v>36287100</v>
       </c>
       <c r="H76" s="3">
-        <v>37808100</v>
+        <v>36570100</v>
       </c>
       <c r="I76" s="3">
-        <v>35508700</v>
+        <v>36967900</v>
       </c>
       <c r="J76" s="3">
+        <v>34719600</v>
+      </c>
+      <c r="K76" s="3">
         <v>34520700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2430,68 +2653,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2481400</v>
+        <v>1472100</v>
       </c>
       <c r="E81" s="3">
-        <v>1197100</v>
+        <v>2426200</v>
       </c>
       <c r="F81" s="3">
-        <v>132900</v>
+        <v>1170500</v>
       </c>
       <c r="G81" s="3">
-        <v>539700</v>
+        <v>129900</v>
       </c>
       <c r="H81" s="3">
-        <v>1217300</v>
+        <v>527700</v>
       </c>
       <c r="I81" s="3">
-        <v>2215900</v>
+        <v>1190300</v>
       </c>
       <c r="J81" s="3">
+        <v>2166600</v>
+      </c>
+      <c r="K81" s="3">
         <v>3283300</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2503,35 +2735,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2967700</v>
+        <v>2875500</v>
       </c>
       <c r="E83" s="3">
-        <v>2892500</v>
+        <v>2901700</v>
       </c>
       <c r="F83" s="3">
-        <v>2896400</v>
+        <v>2828200</v>
       </c>
       <c r="G83" s="3">
-        <v>2914700</v>
+        <v>2832100</v>
       </c>
       <c r="H83" s="3">
-        <v>2417000</v>
+        <v>2849900</v>
       </c>
       <c r="I83" s="3">
-        <v>2307400</v>
+        <v>2363300</v>
       </c>
       <c r="J83" s="3">
+        <v>2256100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2039700</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2556,9 +2792,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2583,9 +2822,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2610,9 +2852,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2637,9 +2882,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2664,36 +2912,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>4993500</v>
+        <v>5169400</v>
       </c>
       <c r="E89" s="3">
-        <v>4753800</v>
+        <v>4882500</v>
       </c>
       <c r="F89" s="3">
-        <v>6862800</v>
+        <v>4648200</v>
       </c>
       <c r="G89" s="3">
-        <v>3081300</v>
+        <v>6710300</v>
       </c>
       <c r="H89" s="3">
-        <v>4372300</v>
+        <v>3012800</v>
       </c>
       <c r="I89" s="3">
-        <v>6587500</v>
+        <v>4275200</v>
       </c>
       <c r="J89" s="3">
+        <v>6441100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1522400</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2705,35 +2959,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2367900</v>
+        <v>-1879300</v>
       </c>
       <c r="E91" s="3">
-        <v>-2216100</v>
+        <v>-2013100</v>
       </c>
       <c r="F91" s="3">
-        <v>-2564500</v>
+        <v>-2045200</v>
       </c>
       <c r="G91" s="3">
-        <v>-3464400</v>
+        <v>-2253000</v>
       </c>
       <c r="H91" s="3">
-        <v>-6420800</v>
+        <v>-3084900</v>
       </c>
       <c r="I91" s="3">
-        <v>-6752500</v>
+        <v>-5781300</v>
       </c>
       <c r="J91" s="3">
+        <v>-6208000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-5315100</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2758,9 +3016,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2785,36 +3046,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-3436100</v>
+        <v>-2330200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3379200</v>
+        <v>-3359700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4081200</v>
+        <v>-3304100</v>
       </c>
       <c r="G94" s="3">
-        <v>-3370700</v>
+        <v>-3990500</v>
       </c>
       <c r="H94" s="3">
-        <v>-7876500</v>
+        <v>-3295800</v>
       </c>
       <c r="I94" s="3">
-        <v>-5552100</v>
+        <v>-7701500</v>
       </c>
       <c r="J94" s="3">
+        <v>-5428700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4965200</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2826,35 +3093,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-738500</v>
+        <v>-589300</v>
       </c>
       <c r="E96" s="3">
-        <v>-638100</v>
+        <v>-722100</v>
       </c>
       <c r="F96" s="3">
-        <v>-740300</v>
+        <v>-623900</v>
       </c>
       <c r="G96" s="3">
-        <v>-609300</v>
+        <v>-723900</v>
       </c>
       <c r="H96" s="3">
-        <v>-583700</v>
+        <v>-595800</v>
       </c>
       <c r="I96" s="3">
-        <v>-676700</v>
+        <v>-570800</v>
       </c>
       <c r="J96" s="3">
+        <v>-661700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-693800</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2879,9 +3150,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2906,9 +3180,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2933,36 +3210,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-1409000</v>
+        <v>-2811600</v>
       </c>
       <c r="E100" s="3">
-        <v>-3555900</v>
+        <v>-1377700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2017400</v>
+        <v>-3476900</v>
       </c>
       <c r="G100" s="3">
-        <v>121600</v>
+        <v>-1972600</v>
       </c>
       <c r="H100" s="3">
-        <v>3179100</v>
+        <v>118900</v>
       </c>
       <c r="I100" s="3">
-        <v>-816900</v>
+        <v>3108500</v>
       </c>
       <c r="J100" s="3">
+        <v>-798700</v>
+      </c>
+      <c r="K100" s="3">
         <v>4409900</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -2978,43 +3261,49 @@
       <c r="G101" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H101" s="3">
-        <v>-99700</v>
+      <c r="H101" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I101" s="3">
-        <v>-144900</v>
+        <v>-97500</v>
       </c>
       <c r="J101" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>148400</v>
+        <v>27600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2181200</v>
+        <v>145100</v>
       </c>
       <c r="F102" s="3">
-        <v>764100</v>
+        <v>-2132700</v>
       </c>
       <c r="G102" s="3">
-        <v>-167800</v>
+        <v>747200</v>
       </c>
       <c r="H102" s="3">
-        <v>-424800</v>
+        <v>-164100</v>
       </c>
       <c r="I102" s="3">
-        <v>73700</v>
+        <v>-415300</v>
       </c>
       <c r="J102" s="3">
+        <v>72000</v>
+      </c>
+      <c r="K102" s="3">
         <v>969900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/PKX_YR_FIN.xlsx
+++ b/Financials/Yearly/PKX_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B36D94-A727-4863-8A35-000C8AF4BD74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="PKX" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,32 +654,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,97 +709,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>57180400</v>
+        <v>54581300</v>
       </c>
       <c r="E8" s="3">
-        <v>53376500</v>
+        <v>50950300</v>
       </c>
       <c r="F8" s="3">
-        <v>46713500</v>
+        <v>44590200</v>
       </c>
       <c r="G8" s="3">
-        <v>51209300</v>
+        <v>48881600</v>
       </c>
       <c r="H8" s="3">
-        <v>56987600</v>
+        <v>54397200</v>
       </c>
       <c r="I8" s="3">
-        <v>54353900</v>
+        <v>51883200</v>
       </c>
       <c r="J8" s="3">
-        <v>55971700</v>
+        <v>53427500</v>
       </c>
       <c r="K8" s="3">
         <v>62044900</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>50164700</v>
+        <v>47884500</v>
       </c>
       <c r="E9" s="3">
-        <v>46023300</v>
+        <v>43931300</v>
       </c>
       <c r="F9" s="3">
-        <v>40826700</v>
+        <v>38970900</v>
       </c>
       <c r="G9" s="3">
-        <v>45459100</v>
+        <v>43392800</v>
       </c>
       <c r="H9" s="3">
-        <v>50569600</v>
+        <v>48271000</v>
       </c>
       <c r="I9" s="3">
-        <v>48324200</v>
+        <v>46127600</v>
       </c>
       <c r="J9" s="3">
-        <v>49405700</v>
+        <v>47160000</v>
       </c>
       <c r="K9" s="3">
         <v>53841500</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7015700</v>
+        <v>6696800</v>
       </c>
       <c r="E10" s="3">
-        <v>7353200</v>
+        <v>7019000</v>
       </c>
       <c r="F10" s="3">
-        <v>5886800</v>
+        <v>5619200</v>
       </c>
       <c r="G10" s="3">
-        <v>5750100</v>
+        <v>5488800</v>
       </c>
       <c r="H10" s="3">
-        <v>6418000</v>
+        <v>6126200</v>
       </c>
       <c r="I10" s="3">
-        <v>6029700</v>
+        <v>5755600</v>
       </c>
       <c r="J10" s="3">
-        <v>6565900</v>
+        <v>6267500</v>
       </c>
       <c r="K10" s="3">
         <v>8203400</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,37 +813,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>95300</v>
+        <v>91000</v>
       </c>
       <c r="E12" s="3">
-        <v>110700</v>
+        <v>105700</v>
       </c>
       <c r="F12" s="3">
-        <v>106100</v>
+        <v>101300</v>
       </c>
       <c r="G12" s="3">
-        <v>119200</v>
+        <v>113800</v>
       </c>
       <c r="H12" s="3">
-        <v>154200</v>
+        <v>147200</v>
       </c>
       <c r="I12" s="3">
-        <v>169700</v>
+        <v>162000</v>
       </c>
       <c r="J12" s="3">
-        <v>169200</v>
+        <v>161500</v>
       </c>
       <c r="K12" s="3">
         <v>191200</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,67 +873,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1236000</v>
+        <v>1179800</v>
       </c>
       <c r="E14" s="3">
-        <v>305000</v>
+        <v>291200</v>
       </c>
       <c r="F14" s="3">
-        <v>534300</v>
+        <v>510000</v>
       </c>
       <c r="G14" s="3">
-        <v>454600</v>
+        <v>433900</v>
       </c>
       <c r="H14" s="3">
-        <v>479700</v>
+        <v>457900</v>
       </c>
       <c r="I14" s="3">
-        <v>375000</v>
+        <v>357900</v>
       </c>
       <c r="J14" s="3">
-        <v>517800</v>
+        <v>494200</v>
       </c>
       <c r="K14" s="3">
         <v>44500</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>188000</v>
+        <v>179500</v>
       </c>
       <c r="E15" s="3">
-        <v>214300</v>
+        <v>204600</v>
       </c>
       <c r="F15" s="3">
-        <v>213800</v>
+        <v>204100</v>
       </c>
       <c r="G15" s="3">
-        <v>241100</v>
+        <v>230200</v>
       </c>
       <c r="H15" s="3">
-        <v>240400</v>
+        <v>229500</v>
       </c>
       <c r="I15" s="3">
-        <v>201100</v>
+        <v>191900</v>
       </c>
       <c r="J15" s="3">
-        <v>192500</v>
+        <v>183700</v>
       </c>
       <c r="K15" s="3">
         <v>155500</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -979,67 +944,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>53538900</v>
+        <v>51105300</v>
       </c>
       <c r="E17" s="3">
-        <v>49614300</v>
+        <v>47359100</v>
       </c>
       <c r="F17" s="3">
-        <v>44744800</v>
+        <v>42710900</v>
       </c>
       <c r="G17" s="3">
-        <v>49543000</v>
+        <v>47291000</v>
       </c>
       <c r="H17" s="3">
-        <v>54630800</v>
+        <v>52147600</v>
       </c>
       <c r="I17" s="3">
-        <v>52099400</v>
+        <v>49731200</v>
       </c>
       <c r="J17" s="3">
-        <v>53232900</v>
+        <v>50813200</v>
       </c>
       <c r="K17" s="3">
         <v>57177600</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3641500</v>
+        <v>3476000</v>
       </c>
       <c r="E18" s="3">
-        <v>3762200</v>
+        <v>3591200</v>
       </c>
       <c r="F18" s="3">
-        <v>1968700</v>
+        <v>1879200</v>
       </c>
       <c r="G18" s="3">
-        <v>1666300</v>
+        <v>1590500</v>
       </c>
       <c r="H18" s="3">
-        <v>2356800</v>
+        <v>2249600</v>
       </c>
       <c r="I18" s="3">
-        <v>2254500</v>
+        <v>2152000</v>
       </c>
       <c r="J18" s="3">
-        <v>2738800</v>
+        <v>2614300</v>
       </c>
       <c r="K18" s="3">
         <v>4867300</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1053,157 +1018,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>146100</v>
+        <v>139500</v>
       </c>
       <c r="E20" s="3">
-        <v>490700</v>
+        <v>468400</v>
       </c>
       <c r="F20" s="3">
-        <v>-128100</v>
+        <v>-122300</v>
       </c>
       <c r="G20" s="3">
-        <v>-813100</v>
+        <v>-776100</v>
       </c>
       <c r="H20" s="3">
-        <v>-435300</v>
+        <v>-415500</v>
       </c>
       <c r="I20" s="3">
-        <v>29800</v>
+        <v>28400</v>
       </c>
       <c r="J20" s="3">
-        <v>992400</v>
+        <v>947300</v>
       </c>
       <c r="K20" s="3">
         <v>146400</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>6663100</v>
+        <v>6392900</v>
       </c>
       <c r="E21" s="3">
-        <v>7154600</v>
+        <v>6862400</v>
       </c>
       <c r="F21" s="3">
-        <v>4668800</v>
+        <v>4488700</v>
       </c>
       <c r="G21" s="3">
-        <v>3685200</v>
+        <v>3549900</v>
       </c>
       <c r="H21" s="3">
-        <v>4771400</v>
+        <v>4586900</v>
       </c>
       <c r="I21" s="3">
-        <v>4647500</v>
+        <v>4463100</v>
       </c>
       <c r="J21" s="3">
-        <v>5987300</v>
+        <v>5740700</v>
       </c>
       <c r="K21" s="3">
         <v>7030700</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>652300</v>
+        <v>622700</v>
       </c>
       <c r="E22" s="3">
-        <v>574700</v>
+        <v>548600</v>
       </c>
       <c r="F22" s="3">
-        <v>579700</v>
+        <v>553300</v>
       </c>
       <c r="G22" s="3">
-        <v>694100</v>
+        <v>662600</v>
       </c>
       <c r="H22" s="3">
-        <v>700100</v>
+        <v>668300</v>
       </c>
       <c r="I22" s="3">
-        <v>578800</v>
+        <v>552500</v>
       </c>
       <c r="J22" s="3">
-        <v>766900</v>
+        <v>732000</v>
       </c>
       <c r="K22" s="3">
         <v>709500</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3135300</v>
+        <v>2992800</v>
       </c>
       <c r="E23" s="3">
-        <v>3678100</v>
+        <v>3510900</v>
       </c>
       <c r="F23" s="3">
-        <v>1260900</v>
+        <v>1203600</v>
       </c>
       <c r="G23" s="3">
-        <v>159100</v>
+        <v>151800</v>
       </c>
       <c r="H23" s="3">
-        <v>1221300</v>
+        <v>1165800</v>
       </c>
       <c r="I23" s="3">
-        <v>1705500</v>
+        <v>1628000</v>
       </c>
       <c r="J23" s="3">
-        <v>2964300</v>
+        <v>2829500</v>
       </c>
       <c r="K23" s="3">
         <v>4304200</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1470300</v>
+        <v>1403400</v>
       </c>
       <c r="E24" s="3">
-        <v>1061500</v>
+        <v>1013200</v>
       </c>
       <c r="F24" s="3">
-        <v>338500</v>
+        <v>323100</v>
       </c>
       <c r="G24" s="3">
-        <v>243700</v>
+        <v>232600</v>
       </c>
       <c r="H24" s="3">
-        <v>725000</v>
+        <v>692000</v>
       </c>
       <c r="I24" s="3">
-        <v>518300</v>
+        <v>494800</v>
       </c>
       <c r="J24" s="3">
-        <v>864900</v>
+        <v>825600</v>
       </c>
       <c r="K24" s="3">
         <v>961300</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1233,67 +1198,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1665000</v>
+        <v>1589300</v>
       </c>
       <c r="E26" s="3">
-        <v>2616700</v>
+        <v>2497700</v>
       </c>
       <c r="F26" s="3">
-        <v>922400</v>
+        <v>880500</v>
       </c>
       <c r="G26" s="3">
-        <v>-84600</v>
+        <v>-80800</v>
       </c>
       <c r="H26" s="3">
-        <v>496400</v>
+        <v>473800</v>
       </c>
       <c r="I26" s="3">
-        <v>1187100</v>
+        <v>1133200</v>
       </c>
       <c r="J26" s="3">
-        <v>2099300</v>
+        <v>2003900</v>
       </c>
       <c r="K26" s="3">
         <v>3342900</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1472100</v>
+        <v>1405200</v>
       </c>
       <c r="E27" s="3">
-        <v>2426200</v>
+        <v>2315900</v>
       </c>
       <c r="F27" s="3">
-        <v>1170500</v>
+        <v>1117300</v>
       </c>
       <c r="G27" s="3">
-        <v>129900</v>
+        <v>124000</v>
       </c>
       <c r="H27" s="3">
-        <v>527700</v>
+        <v>503700</v>
       </c>
       <c r="I27" s="3">
-        <v>1190300</v>
+        <v>1136200</v>
       </c>
       <c r="J27" s="3">
-        <v>2166600</v>
+        <v>2068100</v>
       </c>
       <c r="K27" s="3">
         <v>3283300</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1323,7 +1288,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1318,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1383,7 +1348,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,67 +1378,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-146100</v>
+        <v>-139500</v>
       </c>
       <c r="E32" s="3">
-        <v>-490700</v>
+        <v>-468400</v>
       </c>
       <c r="F32" s="3">
-        <v>128100</v>
+        <v>122300</v>
       </c>
       <c r="G32" s="3">
-        <v>813100</v>
+        <v>776100</v>
       </c>
       <c r="H32" s="3">
-        <v>435300</v>
+        <v>415500</v>
       </c>
       <c r="I32" s="3">
-        <v>-29800</v>
+        <v>-28400</v>
       </c>
       <c r="J32" s="3">
-        <v>-992400</v>
+        <v>-947300</v>
       </c>
       <c r="K32" s="3">
         <v>-146400</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1472100</v>
+        <v>1405200</v>
       </c>
       <c r="E33" s="3">
-        <v>2426200</v>
+        <v>2315900</v>
       </c>
       <c r="F33" s="3">
-        <v>1170500</v>
+        <v>1117300</v>
       </c>
       <c r="G33" s="3">
-        <v>129900</v>
+        <v>124000</v>
       </c>
       <c r="H33" s="3">
-        <v>527700</v>
+        <v>503700</v>
       </c>
       <c r="I33" s="3">
-        <v>1190300</v>
+        <v>1136200</v>
       </c>
       <c r="J33" s="3">
-        <v>2166600</v>
+        <v>2068100</v>
       </c>
       <c r="K33" s="3">
         <v>3283300</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1503,42 +1468,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1472100</v>
+        <v>1405200</v>
       </c>
       <c r="E35" s="3">
-        <v>2426200</v>
+        <v>2315900</v>
       </c>
       <c r="F35" s="3">
-        <v>1170500</v>
+        <v>1117300</v>
       </c>
       <c r="G35" s="3">
-        <v>129900</v>
+        <v>124000</v>
       </c>
       <c r="H35" s="3">
-        <v>527700</v>
+        <v>503700</v>
       </c>
       <c r="I35" s="3">
-        <v>1190300</v>
+        <v>1136200</v>
       </c>
       <c r="J35" s="3">
-        <v>2166600</v>
+        <v>2068100</v>
       </c>
       <c r="K35" s="3">
         <v>3283300</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1568,7 +1533,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +1547,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1596,277 +1561,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2326600</v>
+        <v>2220800</v>
       </c>
       <c r="E41" s="3">
-        <v>2299000</v>
+        <v>2194500</v>
       </c>
       <c r="F41" s="3">
-        <v>2153900</v>
+        <v>2056000</v>
       </c>
       <c r="G41" s="3">
-        <v>4285800</v>
+        <v>4091000</v>
       </c>
       <c r="H41" s="3">
-        <v>3353900</v>
+        <v>3201400</v>
       </c>
       <c r="I41" s="3">
-        <v>7407100</v>
+        <v>7070400</v>
       </c>
       <c r="J41" s="3">
-        <v>110000</v>
+        <v>105000</v>
       </c>
       <c r="K41" s="3">
         <v>70600</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>7111400</v>
+        <v>6788100</v>
       </c>
       <c r="E42" s="3">
-        <v>6200400</v>
+        <v>5918500</v>
       </c>
       <c r="F42" s="3">
-        <v>4591900</v>
+        <v>4383200</v>
       </c>
       <c r="G42" s="3">
-        <v>3441100</v>
+        <v>3284700</v>
       </c>
       <c r="H42" s="3">
-        <v>1287400</v>
+        <v>1228900</v>
       </c>
       <c r="I42" s="3">
-        <v>2614200</v>
+        <v>2495400</v>
       </c>
       <c r="J42" s="3">
-        <v>4209100</v>
+        <v>4017800</v>
       </c>
       <c r="K42" s="3">
         <v>4226100</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>9337800</v>
+        <v>8913400</v>
       </c>
       <c r="E43" s="3">
-        <v>9255800</v>
+        <v>8835000</v>
       </c>
       <c r="F43" s="3">
-        <v>9925700</v>
+        <v>9474600</v>
       </c>
       <c r="G43" s="3">
-        <v>9873700</v>
+        <v>9424900</v>
       </c>
       <c r="H43" s="3">
-        <v>11968000</v>
+        <v>11424000</v>
       </c>
       <c r="I43" s="3">
-        <v>11763300</v>
+        <v>11228600</v>
       </c>
       <c r="J43" s="3">
-        <v>12743300</v>
+        <v>12164100</v>
       </c>
       <c r="K43" s="3">
         <v>13322600</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>10119900</v>
+        <v>9659900</v>
       </c>
       <c r="E44" s="3">
-        <v>8756800</v>
+        <v>8358800</v>
       </c>
       <c r="F44" s="3">
-        <v>7965500</v>
+        <v>7603400</v>
       </c>
       <c r="G44" s="3">
-        <v>7238200</v>
+        <v>6909200</v>
       </c>
       <c r="H44" s="3">
-        <v>9832500</v>
+        <v>9385600</v>
       </c>
       <c r="I44" s="3">
-        <v>8932700</v>
+        <v>8526700</v>
       </c>
       <c r="J44" s="3">
-        <v>9314500</v>
+        <v>8891100</v>
       </c>
       <c r="K44" s="3">
         <v>11055300</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>717200</v>
+        <v>684600</v>
       </c>
       <c r="E45" s="3">
-        <v>880100</v>
+        <v>840100</v>
       </c>
       <c r="F45" s="3">
-        <v>1150300</v>
+        <v>1098000</v>
       </c>
       <c r="G45" s="3">
-        <v>840400</v>
+        <v>802200</v>
       </c>
       <c r="H45" s="3">
-        <v>2781200</v>
+        <v>2654800</v>
       </c>
       <c r="I45" s="3">
-        <v>1180300</v>
+        <v>1126600</v>
       </c>
       <c r="J45" s="3">
-        <v>1401200</v>
+        <v>1337500</v>
       </c>
       <c r="K45" s="3">
         <v>1543300</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>29612900</v>
+        <v>28266800</v>
       </c>
       <c r="E46" s="3">
-        <v>27392100</v>
+        <v>26147000</v>
       </c>
       <c r="F46" s="3">
-        <v>25787400</v>
+        <v>24615200</v>
       </c>
       <c r="G46" s="3">
-        <v>25679200</v>
+        <v>24511900</v>
       </c>
       <c r="H46" s="3">
-        <v>29223000</v>
+        <v>27894700</v>
       </c>
       <c r="I46" s="3">
-        <v>28194100</v>
+        <v>26912500</v>
       </c>
       <c r="J46" s="3">
-        <v>27778200</v>
+        <v>26515500</v>
       </c>
       <c r="K46" s="3">
         <v>30201200</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>5663900</v>
+        <v>5404800</v>
       </c>
       <c r="E47" s="3">
-        <v>6122900</v>
+        <v>5843200</v>
       </c>
       <c r="F47" s="3">
-        <v>6379900</v>
+        <v>6088400</v>
       </c>
       <c r="G47" s="3">
-        <v>6273500</v>
+        <v>5987300</v>
       </c>
       <c r="H47" s="3">
-        <v>6644700</v>
+        <v>6341400</v>
       </c>
       <c r="I47" s="3">
-        <v>7970500</v>
+        <v>7607300</v>
       </c>
       <c r="J47" s="3">
-        <v>6848300</v>
+        <v>6536000</v>
       </c>
       <c r="K47" s="3">
         <v>8160100</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>27233300</v>
+        <v>25995400</v>
       </c>
       <c r="E48" s="3">
-        <v>28994600</v>
+        <v>27676700</v>
       </c>
       <c r="F48" s="3">
-        <v>30701500</v>
+        <v>29306000</v>
       </c>
       <c r="G48" s="3">
-        <v>31334300</v>
+        <v>29910000</v>
       </c>
       <c r="H48" s="3">
-        <v>31941200</v>
+        <v>30489300</v>
       </c>
       <c r="I48" s="3">
-        <v>31843100</v>
+        <v>30395700</v>
       </c>
       <c r="J48" s="3">
-        <v>28861900</v>
+        <v>27550000</v>
       </c>
       <c r="K48" s="3">
         <v>72571100</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4550300</v>
+        <v>4343500</v>
       </c>
       <c r="E49" s="3">
-        <v>5238000</v>
+        <v>4999900</v>
       </c>
       <c r="F49" s="3">
-        <v>5358100</v>
+        <v>5114500</v>
       </c>
       <c r="G49" s="3">
-        <v>5637100</v>
+        <v>5380800</v>
       </c>
       <c r="H49" s="3">
-        <v>6058800</v>
+        <v>5783400</v>
       </c>
       <c r="I49" s="3">
-        <v>5218300</v>
+        <v>4981100</v>
       </c>
       <c r="J49" s="3">
-        <v>4982900</v>
+        <v>4756400</v>
       </c>
       <c r="K49" s="3">
         <v>4720400</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1896,7 +1861,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1926,37 +1891,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>1798200</v>
+        <v>1718000</v>
       </c>
       <c r="E52" s="3">
-        <v>1794300</v>
+        <v>1714100</v>
       </c>
       <c r="F52" s="3">
-        <v>1964600</v>
+        <v>1876700</v>
       </c>
       <c r="G52" s="3">
-        <v>1835600</v>
+        <v>1753200</v>
       </c>
       <c r="H52" s="3">
-        <v>1674700</v>
+        <v>1599900</v>
       </c>
       <c r="I52" s="3">
-        <v>1434200</v>
+        <v>1370000</v>
       </c>
       <c r="J52" s="3">
-        <v>1282700</v>
+        <v>1225400</v>
       </c>
       <c r="K52" s="3">
         <v>1404100</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1986,37 +1951,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>68858500</v>
+        <v>65728500</v>
       </c>
       <c r="E54" s="3">
-        <v>69542000</v>
+        <v>66381000</v>
       </c>
       <c r="F54" s="3">
-        <v>70191400</v>
+        <v>67000900</v>
       </c>
       <c r="G54" s="3">
-        <v>70759700</v>
+        <v>67543400</v>
       </c>
       <c r="H54" s="3">
-        <v>75542300</v>
+        <v>72108600</v>
       </c>
       <c r="I54" s="3">
-        <v>74660200</v>
+        <v>71266500</v>
       </c>
       <c r="J54" s="3">
-        <v>69753900</v>
+        <v>66583300</v>
       </c>
       <c r="K54" s="3">
         <v>70568000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2030,7 +1995,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2044,187 +2009,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>3525400</v>
+        <v>3365200</v>
       </c>
       <c r="E57" s="3">
-        <v>3049300</v>
+        <v>2910700</v>
       </c>
       <c r="F57" s="3">
-        <v>3584500</v>
+        <v>3421600</v>
       </c>
       <c r="G57" s="3">
-        <v>2750300</v>
+        <v>2625300</v>
       </c>
       <c r="H57" s="3">
-        <v>3476700</v>
+        <v>3318700</v>
       </c>
       <c r="I57" s="3">
-        <v>3723600</v>
+        <v>3554300</v>
       </c>
       <c r="J57" s="3">
-        <v>4511800</v>
+        <v>4306700</v>
       </c>
       <c r="K57" s="3">
         <v>4901600</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>9063800</v>
+        <v>8651800</v>
       </c>
       <c r="E58" s="3">
-        <v>9937200</v>
+        <v>9485500</v>
       </c>
       <c r="F58" s="3">
-        <v>8993000</v>
+        <v>8584200</v>
       </c>
       <c r="G58" s="3">
-        <v>10910200</v>
+        <v>10414200</v>
       </c>
       <c r="H58" s="3">
-        <v>10751300</v>
+        <v>10262600</v>
       </c>
       <c r="I58" s="3">
-        <v>9440500</v>
+        <v>9011400</v>
       </c>
       <c r="J58" s="3">
-        <v>9248200</v>
+        <v>8827900</v>
       </c>
       <c r="K58" s="3">
         <v>9712400</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>4076200</v>
+        <v>3890900</v>
       </c>
       <c r="E59" s="3">
-        <v>3686000</v>
+        <v>3518400</v>
       </c>
       <c r="F59" s="3">
-        <v>4068000</v>
+        <v>3883100</v>
       </c>
       <c r="G59" s="3">
-        <v>4054700</v>
+        <v>3870400</v>
       </c>
       <c r="H59" s="3">
-        <v>5462100</v>
+        <v>5213800</v>
       </c>
       <c r="I59" s="3">
-        <v>4750600</v>
+        <v>4534600</v>
       </c>
       <c r="J59" s="3">
-        <v>3642000</v>
+        <v>3476500</v>
       </c>
       <c r="K59" s="3">
         <v>3030900</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>16665400</v>
+        <v>15907900</v>
       </c>
       <c r="E60" s="3">
-        <v>16672500</v>
+        <v>15914700</v>
       </c>
       <c r="F60" s="3">
-        <v>16645500</v>
+        <v>15888900</v>
       </c>
       <c r="G60" s="3">
-        <v>17715200</v>
+        <v>16910000</v>
       </c>
       <c r="H60" s="3">
-        <v>19690000</v>
+        <v>18795000</v>
       </c>
       <c r="I60" s="3">
-        <v>17914600</v>
+        <v>17100300</v>
       </c>
       <c r="J60" s="3">
-        <v>17402000</v>
+        <v>16611000</v>
       </c>
       <c r="K60" s="3">
         <v>17644800</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>8803700</v>
+        <v>8403600</v>
       </c>
       <c r="E61" s="3">
-        <v>8680700</v>
+        <v>8286100</v>
       </c>
       <c r="F61" s="3">
-        <v>11088100</v>
+        <v>10584100</v>
       </c>
       <c r="G61" s="3">
-        <v>11320000</v>
+        <v>10805400</v>
       </c>
       <c r="H61" s="3">
-        <v>13426700</v>
+        <v>12816400</v>
       </c>
       <c r="I61" s="3">
-        <v>13703600</v>
+        <v>13080700</v>
       </c>
       <c r="J61" s="3">
-        <v>12682600</v>
+        <v>12106200</v>
       </c>
       <c r="K61" s="3">
         <v>14418200</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>2240900</v>
+        <v>2139000</v>
       </c>
       <c r="E62" s="3">
-        <v>2420500</v>
+        <v>2310500</v>
       </c>
       <c r="F62" s="3">
-        <v>2120000</v>
+        <v>2023700</v>
       </c>
       <c r="G62" s="3">
-        <v>2062700</v>
+        <v>1969000</v>
       </c>
       <c r="H62" s="3">
-        <v>2599100</v>
+        <v>2481000</v>
       </c>
       <c r="I62" s="3">
-        <v>2755000</v>
+        <v>2629800</v>
       </c>
       <c r="J62" s="3">
-        <v>2331400</v>
+        <v>2225500</v>
       </c>
       <c r="K62" s="3">
         <v>1848000</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2254,7 +2219,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2284,7 +2249,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2314,37 +2279,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>30691800</v>
+        <v>29296700</v>
       </c>
       <c r="E66" s="3">
-        <v>31057000</v>
+        <v>29645300</v>
       </c>
       <c r="F66" s="3">
-        <v>32902800</v>
+        <v>31407200</v>
       </c>
       <c r="G66" s="3">
-        <v>34472600</v>
+        <v>32905700</v>
       </c>
       <c r="H66" s="3">
-        <v>38972200</v>
+        <v>37200700</v>
       </c>
       <c r="I66" s="3">
-        <v>37692200</v>
+        <v>35979000</v>
       </c>
       <c r="J66" s="3">
-        <v>35034300</v>
+        <v>33441800</v>
       </c>
       <c r="K66" s="3">
         <v>36047200</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2358,7 +2323,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2388,7 +2353,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2418,7 +2383,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2448,7 +2413,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2478,37 +2443,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>38910100</v>
+        <v>37141500</v>
       </c>
       <c r="E72" s="3">
-        <v>37889800</v>
+        <v>36167500</v>
       </c>
       <c r="F72" s="3">
-        <v>36232900</v>
+        <v>34586000</v>
       </c>
       <c r="G72" s="3">
-        <v>35640900</v>
+        <v>34020900</v>
       </c>
       <c r="H72" s="3">
-        <v>36024700</v>
+        <v>34387200</v>
       </c>
       <c r="I72" s="3">
-        <v>36127200</v>
+        <v>34485100</v>
       </c>
       <c r="J72" s="3">
-        <v>35488800</v>
+        <v>33875600</v>
       </c>
       <c r="K72" s="3">
         <v>34823700</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2538,7 +2503,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2568,7 +2533,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2598,37 +2563,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>38166700</v>
+        <v>36431900</v>
       </c>
       <c r="E76" s="3">
-        <v>38484900</v>
+        <v>36735600</v>
       </c>
       <c r="F76" s="3">
-        <v>37288600</v>
+        <v>35593700</v>
       </c>
       <c r="G76" s="3">
-        <v>36287100</v>
+        <v>34637700</v>
       </c>
       <c r="H76" s="3">
-        <v>36570100</v>
+        <v>34907800</v>
       </c>
       <c r="I76" s="3">
-        <v>36967900</v>
+        <v>35287600</v>
       </c>
       <c r="J76" s="3">
-        <v>34719600</v>
+        <v>33141500</v>
       </c>
       <c r="K76" s="3">
         <v>34520700</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2658,12 +2623,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2693,37 +2658,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1472100</v>
+        <v>1405200</v>
       </c>
       <c r="E81" s="3">
-        <v>2426200</v>
+        <v>2315900</v>
       </c>
       <c r="F81" s="3">
-        <v>1170500</v>
+        <v>1117300</v>
       </c>
       <c r="G81" s="3">
-        <v>129900</v>
+        <v>124000</v>
       </c>
       <c r="H81" s="3">
-        <v>527700</v>
+        <v>503700</v>
       </c>
       <c r="I81" s="3">
-        <v>1190300</v>
+        <v>1136200</v>
       </c>
       <c r="J81" s="3">
-        <v>2166600</v>
+        <v>2068100</v>
       </c>
       <c r="K81" s="3">
         <v>3283300</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2737,37 +2702,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2875500</v>
+        <v>2744800</v>
       </c>
       <c r="E83" s="3">
-        <v>2901700</v>
+        <v>2769800</v>
       </c>
       <c r="F83" s="3">
-        <v>2828200</v>
+        <v>2699600</v>
       </c>
       <c r="G83" s="3">
-        <v>2832100</v>
+        <v>2703300</v>
       </c>
       <c r="H83" s="3">
-        <v>2849900</v>
+        <v>2720400</v>
       </c>
       <c r="I83" s="3">
-        <v>2363300</v>
+        <v>2255900</v>
       </c>
       <c r="J83" s="3">
-        <v>2256100</v>
+        <v>2153600</v>
       </c>
       <c r="K83" s="3">
         <v>2039700</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2797,7 +2762,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2827,7 +2792,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2857,7 +2822,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2887,7 +2852,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2917,37 +2882,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>5169400</v>
+        <v>4934500</v>
       </c>
       <c r="E89" s="3">
-        <v>4882500</v>
+        <v>4660600</v>
       </c>
       <c r="F89" s="3">
-        <v>4648200</v>
+        <v>4436900</v>
       </c>
       <c r="G89" s="3">
-        <v>6710300</v>
+        <v>6405300</v>
       </c>
       <c r="H89" s="3">
-        <v>3012800</v>
+        <v>2875900</v>
       </c>
       <c r="I89" s="3">
-        <v>4275200</v>
+        <v>4080800</v>
       </c>
       <c r="J89" s="3">
-        <v>6441100</v>
+        <v>6148300</v>
       </c>
       <c r="K89" s="3">
         <v>1522400</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2961,37 +2926,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-1879300</v>
+        <v>-1793900</v>
       </c>
       <c r="E91" s="3">
-        <v>-2013100</v>
+        <v>-1921600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2045200</v>
+        <v>-1952300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2253000</v>
+        <v>-2150600</v>
       </c>
       <c r="H91" s="3">
-        <v>-3084900</v>
+        <v>-2944700</v>
       </c>
       <c r="I91" s="3">
-        <v>-5781300</v>
+        <v>-5518500</v>
       </c>
       <c r="J91" s="3">
-        <v>-6208000</v>
+        <v>-5925800</v>
       </c>
       <c r="K91" s="3">
         <v>-5315100</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3021,7 +2986,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3051,37 +3016,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-2330200</v>
+        <v>-2224300</v>
       </c>
       <c r="E94" s="3">
-        <v>-3359700</v>
+        <v>-3207000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3304100</v>
+        <v>-3153900</v>
       </c>
       <c r="G94" s="3">
-        <v>-3990500</v>
+        <v>-3809100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3295800</v>
+        <v>-3146000</v>
       </c>
       <c r="I94" s="3">
-        <v>-7701500</v>
+        <v>-7351400</v>
       </c>
       <c r="J94" s="3">
-        <v>-5428700</v>
+        <v>-5182000</v>
       </c>
       <c r="K94" s="3">
         <v>-4965200</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3095,37 +3060,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-589300</v>
+        <v>-562500</v>
       </c>
       <c r="E96" s="3">
-        <v>-722100</v>
+        <v>-689300</v>
       </c>
       <c r="F96" s="3">
-        <v>-623900</v>
+        <v>-595500</v>
       </c>
       <c r="G96" s="3">
-        <v>-723900</v>
+        <v>-691000</v>
       </c>
       <c r="H96" s="3">
-        <v>-595800</v>
+        <v>-568700</v>
       </c>
       <c r="I96" s="3">
-        <v>-570800</v>
+        <v>-544800</v>
       </c>
       <c r="J96" s="3">
-        <v>-661700</v>
+        <v>-631600</v>
       </c>
       <c r="K96" s="3">
         <v>-693800</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3155,7 +3120,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3185,7 +3150,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3215,37 +3180,37 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-2811600</v>
+        <v>-2683800</v>
       </c>
       <c r="E100" s="3">
-        <v>-1377700</v>
+        <v>-1315000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3476900</v>
+        <v>-3318800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1972600</v>
+        <v>-1882900</v>
       </c>
       <c r="H100" s="3">
-        <v>118900</v>
+        <v>113500</v>
       </c>
       <c r="I100" s="3">
-        <v>3108500</v>
+        <v>2967200</v>
       </c>
       <c r="J100" s="3">
-        <v>-798700</v>
+        <v>-762400</v>
       </c>
       <c r="K100" s="3">
         <v>4409900</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -3265,40 +3230,40 @@
         <v>90</v>
       </c>
       <c r="I101" s="3">
-        <v>-97500</v>
+        <v>-93000</v>
       </c>
       <c r="J101" s="3">
-        <v>-141700</v>
+        <v>-135200</v>
       </c>
       <c r="K101" s="3">
         <v>2700</v>
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>27600</v>
+        <v>26300</v>
       </c>
       <c r="E102" s="3">
-        <v>145100</v>
+        <v>138500</v>
       </c>
       <c r="F102" s="3">
-        <v>-2132700</v>
+        <v>-2035800</v>
       </c>
       <c r="G102" s="3">
-        <v>747200</v>
+        <v>713200</v>
       </c>
       <c r="H102" s="3">
-        <v>-164100</v>
+        <v>-156600</v>
       </c>
       <c r="I102" s="3">
-        <v>-415300</v>
+        <v>-396400</v>
       </c>
       <c r="J102" s="3">
-        <v>72000</v>
+        <v>68700</v>
       </c>
       <c r="K102" s="3">
         <v>969900</v>
